--- a/Project/Project- UX Design for Meal App/BookMyMeal_RISE.xlsx
+++ b/Project/Project- UX Design for Meal App/BookMyMeal_RISE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Learn At Rise\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Learn At Rise\Project\Project- UX Design for Meal App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365840E9-4F49-472B-8D05-42DE7B41DE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3C8BE1-4DAA-4B47-AA44-12367B528E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="390" windowWidth="20730" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -640,21 +640,21 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -678,21 +678,21 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -716,21 +716,21 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -756,19 +756,19 @@
     </row>
     <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -792,21 +792,21 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -830,21 +830,21 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -868,21 +868,21 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -906,21 +906,21 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -944,9 +944,9 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -955,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -984,7 +984,7 @@
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -1031,10 +1031,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1058,9 +1058,9 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -1069,10 +1069,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -1145,10 +1145,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>36</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>36</v>
@@ -1249,7 +1249,9 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
@@ -28871,6 +28873,21 @@
       <c r="Z1000" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
+    <sortCondition ref="B2:B15"/>
+    <sortCondition ref="C2:C15"/>
+    <sortCondition ref="D2:D15"/>
+  </sortState>
+  <conditionalFormatting sqref="B1:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
